--- a/medicine/Pharmacie/Pascal_Brandys/Pascal_Brandys.xlsx
+++ b/medicine/Pharmacie/Pascal_Brandys/Pascal_Brandys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascal Brandys, né le 30 novembre 1958 à Roanne, est un chef d'entreprise français, CEO de la société Phylex BioSciences. Il a été président fondateur de l'association France Biotech.
 </t>
@@ -513,15 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Il est admis en 1977 à l'École polytechnique. Il sort de cette école dans le corps des Ponts-et-Chaussées. Il est ensuite admis à l'Université Stanford, où il obtient un Master of Sciences en 1982.
-Parcours professionnel
-Il commence sa carrière à Londres et à Tokyo, dans le capital risque.
-En 1989, il est le cofondateur de la société Genset dont il devient le premier patron[1]. En 2000, il est évincé de la direction de la société et remplacé par André Pernet, mais il reste membre du conseil d'administration[2]. Genset sera ensuite vendue en 2002 à Merck-Serono[3].
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est admis en 1977 à l'École polytechnique. Il sort de cette école dans le corps des Ponts-et-Chaussées. Il est ensuite admis à l'Université Stanford, où il obtient un Master of Sciences en 1982.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pascal_Brandys</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Brandys</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence sa carrière à Londres et à Tokyo, dans le capital risque.
+En 1989, il est le cofondateur de la société Genset dont il devient le premier patron. En 2000, il est évincé de la direction de la société et remplacé par André Pernet, mais il reste membre du conseil d'administration. Genset sera ensuite vendue en 2002 à Merck-Serono.
 En 2001, il crée Biobank Technology Ventures LLC à San Diego, dont il est le patron.  
 En 2003, il crée avec Jens Herold une société qui développe un vaccin contre le SARS-CoV-1. En 2013, il crée CompuVax, une société spécialisée dans les développements de vaccins, qu'il dirige jusqu'en 2019. 
-Il dirige la société Phylex Biosciences dont l'ambition est de mettre au point un vaccin qui fonctionne contre tous les coronavirus, en utilisant une technologie à base de particules pseudo-virales (VLP)[4].
-En 2022 il publie une étude en collaboration avec l'Institut Pasteur concluant à la protection par le vaccin[5]. 
+Il dirige la société Phylex Biosciences dont l'ambition est de mettre au point un vaccin qui fonctionne contre tous les coronavirus, en utilisant une technologie à base de particules pseudo-virales (VLP).
+En 2022 il publie une étude en collaboration avec l'Institut Pasteur concluant à la protection par le vaccin. 
 </t>
         </is>
       </c>
